--- a/Oil prices per barrel.xlsx
+++ b/Oil prices per barrel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1304F6-DFAC-4CC3-966E-CE3D0AFCE734}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A948EB0-CBE4-4D91-9842-E3E27031295E}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="1572" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oil prices per barrel" sheetId="2" r:id="rId1"/>
@@ -568,6 +568,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,820 +871,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EC2"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
-      <selection activeCell="ED2" sqref="ED2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>43800</v>
-      </c>
-      <c r="C1" s="1">
-        <v>43770</v>
-      </c>
-      <c r="D1" s="1">
-        <v>43739</v>
-      </c>
-      <c r="E1" s="1">
-        <v>43709</v>
-      </c>
-      <c r="F1" s="1">
-        <v>43678</v>
-      </c>
-      <c r="G1" s="1">
-        <v>43647</v>
-      </c>
-      <c r="H1" s="1">
-        <v>43617</v>
-      </c>
-      <c r="I1" s="1">
-        <v>43586</v>
-      </c>
-      <c r="J1" s="1">
-        <v>43556</v>
-      </c>
-      <c r="K1" s="1">
-        <v>43525</v>
-      </c>
-      <c r="L1" s="1">
-        <v>43497</v>
-      </c>
-      <c r="M1" s="1">
-        <v>43466</v>
-      </c>
-      <c r="N1" s="1">
-        <v>43435</v>
-      </c>
-      <c r="O1" s="1">
-        <v>43405</v>
-      </c>
-      <c r="P1" s="1">
-        <v>43374</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>43344</v>
-      </c>
-      <c r="R1" s="1">
-        <v>43313</v>
-      </c>
-      <c r="S1" s="1">
-        <v>43282</v>
-      </c>
-      <c r="T1" s="1">
-        <v>43252</v>
-      </c>
-      <c r="U1" s="1">
-        <v>43221</v>
-      </c>
-      <c r="V1" s="1">
-        <v>43191</v>
-      </c>
-      <c r="W1" s="1">
-        <v>43160</v>
-      </c>
-      <c r="X1" s="1">
-        <v>43132</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>43101</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>43070</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>43040</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>43009</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>42979</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>42948</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>42917</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>42887</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>42856</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>42826</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>42795</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>42767</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>42705</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>42675</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>42644</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>42614</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>42583</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>42552</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42522</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>42491</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>42461</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>42430</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>42401</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>42370</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>42339</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>42309</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>42278</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>42248</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>42217</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>42186</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>42156</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>42125</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>42095</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>42064</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>42036</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>42005</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>41974</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>41944</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>41913</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>41883</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>41852</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>41821</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>41791</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>41760</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>41730</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>41699</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>41671</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>41640</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>41609</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>41579</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>41548</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>41518</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>41487</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>41456</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>41426</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>41395</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>41365</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>41334</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>41306</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>41275</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>41244</v>
-      </c>
-      <c r="CI1" s="1">
-        <v>41214</v>
-      </c>
-      <c r="CJ1" s="1">
-        <v>41183</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>41153</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>41122</v>
-      </c>
-      <c r="CM1" s="1">
-        <v>41091</v>
-      </c>
-      <c r="CN1" s="1">
-        <v>41061</v>
-      </c>
-      <c r="CO1" s="1">
-        <v>41030</v>
-      </c>
-      <c r="CP1" s="1">
-        <v>41000</v>
-      </c>
-      <c r="CQ1" s="1">
-        <v>40969</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>40940</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>40909</v>
-      </c>
-      <c r="CT1" s="1">
-        <v>40878</v>
-      </c>
-      <c r="CU1" s="1">
-        <v>40848</v>
-      </c>
-      <c r="CV1" s="1">
-        <v>40817</v>
-      </c>
-      <c r="CW1" s="1">
-        <v>40787</v>
-      </c>
-      <c r="CX1" s="1">
-        <v>40756</v>
-      </c>
-      <c r="CY1" s="1">
-        <v>40725</v>
-      </c>
-      <c r="CZ1" s="1">
-        <v>40695</v>
-      </c>
-      <c r="DA1" s="1">
-        <v>40664</v>
-      </c>
-      <c r="DB1" s="1">
-        <v>40634</v>
-      </c>
-      <c r="DC1" s="1">
-        <v>40603</v>
-      </c>
-      <c r="DD1" s="1">
-        <v>40575</v>
-      </c>
-      <c r="DE1" s="1">
-        <v>40544</v>
-      </c>
-      <c r="DF1" s="1">
-        <v>40513</v>
-      </c>
-      <c r="DG1" s="1">
-        <v>40483</v>
-      </c>
-      <c r="DH1" s="1">
-        <v>40452</v>
-      </c>
-      <c r="DI1" s="1">
-        <v>40422</v>
-      </c>
-      <c r="DJ1" s="1">
-        <v>40391</v>
-      </c>
-      <c r="DK1" s="1">
-        <v>40360</v>
-      </c>
-      <c r="DL1" s="1">
-        <v>40330</v>
-      </c>
-      <c r="DM1" s="1">
-        <v>40299</v>
-      </c>
-      <c r="DN1" s="1">
-        <v>40269</v>
-      </c>
-      <c r="DO1" s="1">
-        <v>40238</v>
-      </c>
-      <c r="DP1" s="1">
-        <v>40210</v>
-      </c>
-      <c r="DQ1" s="1">
-        <v>40179</v>
-      </c>
-      <c r="DR1" s="1">
-        <v>40148</v>
-      </c>
-      <c r="DS1" s="1">
-        <v>40118</v>
-      </c>
-      <c r="DT1" s="1">
-        <v>40087</v>
-      </c>
-      <c r="DU1" s="1">
-        <v>40057</v>
-      </c>
-      <c r="DV1" s="1">
-        <v>40026</v>
-      </c>
-      <c r="DW1" s="1">
-        <v>39995</v>
-      </c>
-      <c r="DX1" s="1">
-        <v>39965</v>
-      </c>
-      <c r="DY1" s="1">
-        <v>39934</v>
-      </c>
-      <c r="DZ1" s="1">
-        <v>39904</v>
-      </c>
-      <c r="EA1" s="1">
-        <v>39873</v>
-      </c>
-      <c r="EB1" s="1">
-        <v>39845</v>
-      </c>
-      <c r="EC1" s="1">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>59.88</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B3">
         <v>57.03</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B4">
         <v>53.96</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B5">
         <v>56.95</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B6">
         <v>54.81</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B7">
         <v>57.35</v>
       </c>
-      <c r="H2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B8">
         <v>54.66</v>
       </c>
-      <c r="I2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B9">
         <v>60.83</v>
       </c>
-      <c r="J2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B10">
         <v>63.86</v>
       </c>
-      <c r="K2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B11">
         <v>58.15</v>
       </c>
-      <c r="L2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B12">
         <v>54.95</v>
       </c>
-      <c r="M2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B13">
         <v>51.38</v>
       </c>
-      <c r="N2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B14">
         <v>49.52</v>
       </c>
-      <c r="O2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B15">
         <v>56.96</v>
       </c>
-      <c r="P2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B16">
         <v>70.75</v>
       </c>
-      <c r="Q2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B17">
         <v>70.23</v>
       </c>
-      <c r="R2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B18">
         <v>68.06</v>
       </c>
-      <c r="S2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B19">
         <v>70.98</v>
       </c>
-      <c r="T2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B20">
         <v>67.87</v>
       </c>
-      <c r="U2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B21">
         <v>69.98</v>
       </c>
-      <c r="V2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B22">
         <v>66.25</v>
       </c>
-      <c r="W2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B23">
         <v>62.73</v>
       </c>
-      <c r="X2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B24">
         <v>62.23</v>
       </c>
-      <c r="Y2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B25">
         <v>63.7</v>
       </c>
-      <c r="Z2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B26">
         <v>57.88</v>
       </c>
-      <c r="AA2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B27">
         <v>56.64</v>
       </c>
-      <c r="AB2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B28">
         <v>51.58</v>
       </c>
-      <c r="AC2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B29">
         <v>49.82</v>
       </c>
-      <c r="AD2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B30">
         <v>48.04</v>
       </c>
-      <c r="AE2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B31">
         <v>46.63</v>
       </c>
-      <c r="AF2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B32">
         <v>45.18</v>
       </c>
-      <c r="AG2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B33">
         <v>48.48</v>
       </c>
-      <c r="AH2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B34">
         <v>51.06</v>
       </c>
-      <c r="AI2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B35">
         <v>49.33</v>
       </c>
-      <c r="AJ2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B36">
         <v>53.47</v>
       </c>
-      <c r="AK2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B37">
         <v>52.5</v>
       </c>
-      <c r="AL2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B38">
         <v>51.97</v>
       </c>
-      <c r="AM2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B39">
         <v>45.66</v>
       </c>
-      <c r="AN2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B40">
         <v>49.78</v>
       </c>
-      <c r="AO2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B41">
         <v>45.18</v>
       </c>
-      <c r="AP2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B42">
         <v>44.72</v>
       </c>
-      <c r="AQ2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B43">
         <v>44.65</v>
       </c>
-      <c r="AR2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B44">
         <v>48.76</v>
       </c>
-      <c r="AS2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B45">
         <v>46.71</v>
       </c>
-      <c r="AT2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B46">
         <v>40.75</v>
       </c>
-      <c r="AU2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B47">
         <v>37.549999999999997</v>
       </c>
-      <c r="AV2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B48">
         <v>30.32</v>
       </c>
-      <c r="AW2">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B49">
         <v>31.68</v>
       </c>
-      <c r="AX2">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B50">
         <v>37.19</v>
       </c>
-      <c r="AY2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B51">
         <v>42.44</v>
       </c>
-      <c r="AZ2">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B52">
         <v>46.22</v>
       </c>
-      <c r="BA2">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B53">
         <v>45.48</v>
       </c>
-      <c r="BB2">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B54">
         <v>42.87</v>
       </c>
-      <c r="BC2">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B55">
         <v>50.9</v>
       </c>
-      <c r="BD2">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B56">
         <v>59.82</v>
       </c>
-      <c r="BE2">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B57">
         <v>59.27</v>
       </c>
-      <c r="BF2">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B58">
         <v>54.45</v>
       </c>
-      <c r="BG2">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B59">
         <v>47.82</v>
       </c>
-      <c r="BH2">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B60">
         <v>50.58</v>
       </c>
-      <c r="BI2">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B61">
         <v>47.22</v>
       </c>
-      <c r="BJ2">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B62">
         <v>59.29</v>
       </c>
-      <c r="BK2">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B63">
         <v>75.790000000000006</v>
       </c>
-      <c r="BL2">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B64">
         <v>84.4</v>
       </c>
-      <c r="BM2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B65">
         <v>93.21</v>
       </c>
-      <c r="BN2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B66">
         <v>96.54</v>
       </c>
-      <c r="BO2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B67">
         <v>103.59</v>
       </c>
-      <c r="BP2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B68">
         <v>105.79</v>
       </c>
-      <c r="BQ2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B69">
         <v>102.18</v>
       </c>
-      <c r="BR2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B70">
         <v>102.07</v>
       </c>
-      <c r="BS2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B71">
         <v>100.8</v>
       </c>
-      <c r="BT2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B72">
         <v>100.82</v>
       </c>
-      <c r="BU2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B73">
         <v>94.62</v>
       </c>
-      <c r="BV2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B74">
         <v>97.63</v>
       </c>
-      <c r="BW2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B75">
         <v>93.86</v>
       </c>
-      <c r="BX2">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B76">
         <v>100.54</v>
       </c>
-      <c r="BY2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B77">
         <v>106.29</v>
       </c>
-      <c r="BZ2">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B78">
         <v>106.57</v>
       </c>
-      <c r="CA2">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B79">
         <v>104.67</v>
       </c>
-      <c r="CB2">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B80">
         <v>95.77</v>
       </c>
-      <c r="CC2">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B81">
         <v>94.51</v>
       </c>
-      <c r="CD2">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B82">
         <v>92.02</v>
       </c>
-      <c r="CE2">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B83">
         <v>92.94</v>
       </c>
-      <c r="CF2">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B84">
         <v>95.31</v>
       </c>
-      <c r="CG2">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B85">
         <v>94.76</v>
       </c>
-      <c r="CH2">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B86">
         <v>87.86</v>
       </c>
-      <c r="CI2">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B87">
         <v>86.53</v>
       </c>
-      <c r="CJ2">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B88">
         <v>89.49</v>
       </c>
-      <c r="CK2">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B89">
         <v>94.51</v>
       </c>
-      <c r="CL2">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B90">
         <v>94.13</v>
       </c>
-      <c r="CM2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B91">
         <v>87.9</v>
       </c>
-      <c r="CN2">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B92">
         <v>82.3</v>
       </c>
-      <c r="CO2">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B93">
         <v>94.66</v>
       </c>
-      <c r="CP2">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B94">
         <v>103.32</v>
       </c>
-      <c r="CQ2">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B95">
         <v>106.16</v>
       </c>
-      <c r="CR2">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>40940</v>
+      </c>
+      <c r="B96">
         <v>102.2</v>
       </c>
-      <c r="CS2">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B97">
         <v>100.27</v>
       </c>
-      <c r="CT2">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B98">
         <v>98.56</v>
       </c>
-      <c r="CU2">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B99">
         <v>97.16</v>
       </c>
-      <c r="CV2">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B100">
         <v>86.32</v>
       </c>
-      <c r="CW2">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B101">
         <v>85.52</v>
       </c>
-      <c r="CX2">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B102">
         <v>86.33</v>
       </c>
-      <c r="CY2">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B103">
         <v>97.3</v>
       </c>
-      <c r="CZ2">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B104">
         <v>96.26</v>
       </c>
-      <c r="DA2">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B105">
         <v>100.9</v>
       </c>
-      <c r="DB2">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B106">
         <v>109.53</v>
       </c>
-      <c r="DC2">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B107">
         <v>102.86</v>
       </c>
-      <c r="DD2">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B108">
         <v>88.58</v>
       </c>
-      <c r="DE2">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B109">
         <v>89.17</v>
       </c>
-      <c r="DF2">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B110">
         <v>89.15</v>
       </c>
-      <c r="DG2">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>40483</v>
+      </c>
+      <c r="B111">
         <v>84.25</v>
       </c>
-      <c r="DH2">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B112">
         <v>81.89</v>
       </c>
-      <c r="DI2">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>40422</v>
+      </c>
+      <c r="B113">
         <v>75.239999999999995</v>
       </c>
-      <c r="DJ2">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B114">
         <v>76.599999999999994</v>
       </c>
-      <c r="DK2">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B115">
         <v>76.319999999999993</v>
       </c>
-      <c r="DL2">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B116">
         <v>75.34</v>
       </c>
-      <c r="DM2">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B117">
         <v>73.739999999999995</v>
       </c>
-      <c r="DN2">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B118">
         <v>84.29</v>
       </c>
-      <c r="DO2">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B119">
         <v>81.2</v>
       </c>
-      <c r="DP2">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>40210</v>
+      </c>
+      <c r="B120">
         <v>76.39</v>
       </c>
-      <c r="DQ2">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B121">
         <v>78.33</v>
       </c>
-      <c r="DR2">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B122">
         <v>74.47</v>
       </c>
-      <c r="DS2">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B123">
         <v>77.989999999999995</v>
       </c>
-      <c r="DT2">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B124">
         <v>75.72</v>
       </c>
-      <c r="DU2">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B125">
         <v>69.41</v>
       </c>
-      <c r="DV2">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B126">
         <v>71.05</v>
       </c>
-      <c r="DW2">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B127">
         <v>64.150000000000006</v>
       </c>
-      <c r="DX2">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>39965</v>
+      </c>
+      <c r="B128">
         <v>69.64</v>
       </c>
-      <c r="DY2">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B129">
         <v>59.03</v>
       </c>
-      <c r="DZ2">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B130">
         <v>49.65</v>
       </c>
-      <c r="EA2">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>39873</v>
+      </c>
+      <c r="B131">
         <v>47.94</v>
       </c>
-      <c r="EB2">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B132">
         <v>39.090000000000003</v>
       </c>
-      <c r="EC2">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B133">
         <v>41.71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Oil prices per barrel.xlsx
+++ b/Oil prices per barrel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/GitHub/final-project-tomh237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A948EB0-CBE4-4D91-9842-E3E27031295E}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D433C6-0005-4401-8C4D-2C7BD1DE707A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -568,10 +568,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,16 +870,17 @@
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/Oil prices per barrel.xlsx
+++ b/Oil prices per barrel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/GitHub/final-project-tomh237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D433C6-0005-4401-8C4D-2C7BD1DE707A}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C878AF-EF15-48D3-B3D9-F7734FF2F90A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -568,6 +568,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,1061 +893,1064 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43800</v>
+        <v>39814</v>
       </c>
       <c r="B2">
-        <v>59.88</v>
+        <v>41.71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43770</v>
+        <v>39845</v>
       </c>
       <c r="B3">
-        <v>57.03</v>
+        <v>39.090000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43739</v>
+        <v>39873</v>
       </c>
       <c r="B4">
-        <v>53.96</v>
+        <v>47.94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43709</v>
+        <v>39904</v>
       </c>
       <c r="B5">
-        <v>56.95</v>
+        <v>49.65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43678</v>
+        <v>39934</v>
       </c>
       <c r="B6">
-        <v>54.81</v>
+        <v>59.03</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43647</v>
+        <v>39965</v>
       </c>
       <c r="B7">
-        <v>57.35</v>
+        <v>69.64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43617</v>
+        <v>39995</v>
       </c>
       <c r="B8">
-        <v>54.66</v>
+        <v>64.150000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43586</v>
+        <v>40026</v>
       </c>
       <c r="B9">
-        <v>60.83</v>
+        <v>71.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43556</v>
+        <v>40057</v>
       </c>
       <c r="B10">
-        <v>63.86</v>
+        <v>69.41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43525</v>
+        <v>40087</v>
       </c>
       <c r="B11">
-        <v>58.15</v>
+        <v>75.72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43497</v>
+        <v>40118</v>
       </c>
       <c r="B12">
-        <v>54.95</v>
+        <v>77.989999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43466</v>
+        <v>40148</v>
       </c>
       <c r="B13">
-        <v>51.38</v>
+        <v>74.47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43435</v>
+        <v>40179</v>
       </c>
       <c r="B14">
-        <v>49.52</v>
+        <v>78.33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43405</v>
+        <v>40210</v>
       </c>
       <c r="B15">
-        <v>56.96</v>
+        <v>76.39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43374</v>
+        <v>40238</v>
       </c>
       <c r="B16">
-        <v>70.75</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43344</v>
+        <v>40269</v>
       </c>
       <c r="B17">
-        <v>70.23</v>
+        <v>84.29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43313</v>
+        <v>40299</v>
       </c>
       <c r="B18">
-        <v>68.06</v>
+        <v>73.739999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43282</v>
+        <v>40330</v>
       </c>
       <c r="B19">
-        <v>70.98</v>
+        <v>75.34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>43252</v>
+        <v>40360</v>
       </c>
       <c r="B20">
-        <v>67.87</v>
+        <v>76.319999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>43221</v>
+        <v>40391</v>
       </c>
       <c r="B21">
-        <v>69.98</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>43191</v>
+        <v>40422</v>
       </c>
       <c r="B22">
-        <v>66.25</v>
+        <v>75.239999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>43160</v>
+        <v>40452</v>
       </c>
       <c r="B23">
-        <v>62.73</v>
+        <v>81.89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>43132</v>
+        <v>40483</v>
       </c>
       <c r="B24">
-        <v>62.23</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>43101</v>
+        <v>40513</v>
       </c>
       <c r="B25">
-        <v>63.7</v>
+        <v>89.15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>43070</v>
+        <v>40544</v>
       </c>
       <c r="B26">
-        <v>57.88</v>
+        <v>89.17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>43040</v>
+        <v>40575</v>
       </c>
       <c r="B27">
-        <v>56.64</v>
+        <v>88.58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>43009</v>
+        <v>40603</v>
       </c>
       <c r="B28">
-        <v>51.58</v>
+        <v>102.86</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>42979</v>
+        <v>40634</v>
       </c>
       <c r="B29">
-        <v>49.82</v>
+        <v>109.53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>42948</v>
+        <v>40664</v>
       </c>
       <c r="B30">
-        <v>48.04</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>42917</v>
+        <v>40695</v>
       </c>
       <c r="B31">
-        <v>46.63</v>
+        <v>96.26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>42887</v>
+        <v>40725</v>
       </c>
       <c r="B32">
-        <v>45.18</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>42856</v>
+        <v>40756</v>
       </c>
       <c r="B33">
-        <v>48.48</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>42826</v>
+        <v>40787</v>
       </c>
       <c r="B34">
-        <v>51.06</v>
+        <v>85.52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>42795</v>
+        <v>40817</v>
       </c>
       <c r="B35">
-        <v>49.33</v>
+        <v>86.32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>42767</v>
+        <v>40848</v>
       </c>
       <c r="B36">
-        <v>53.47</v>
+        <v>97.16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>42736</v>
+        <v>40878</v>
       </c>
       <c r="B37">
-        <v>52.5</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>42705</v>
+        <v>40909</v>
       </c>
       <c r="B38">
-        <v>51.97</v>
+        <v>100.27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>42675</v>
+        <v>40940</v>
       </c>
       <c r="B39">
-        <v>45.66</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>42644</v>
+        <v>40969</v>
       </c>
       <c r="B40">
-        <v>49.78</v>
+        <v>106.16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>42614</v>
+        <v>41000</v>
       </c>
       <c r="B41">
-        <v>45.18</v>
+        <v>103.32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>42583</v>
+        <v>41030</v>
       </c>
       <c r="B42">
-        <v>44.72</v>
+        <v>94.66</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42552</v>
+        <v>41061</v>
       </c>
       <c r="B43">
-        <v>44.65</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42522</v>
+        <v>41091</v>
       </c>
       <c r="B44">
-        <v>48.76</v>
+        <v>87.9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>42491</v>
+        <v>41122</v>
       </c>
       <c r="B45">
-        <v>46.71</v>
+        <v>94.13</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>42461</v>
+        <v>41153</v>
       </c>
       <c r="B46">
-        <v>40.75</v>
+        <v>94.51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>42430</v>
+        <v>41183</v>
       </c>
       <c r="B47">
-        <v>37.549999999999997</v>
+        <v>89.49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>42401</v>
+        <v>41214</v>
       </c>
       <c r="B48">
-        <v>30.32</v>
+        <v>86.53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>42370</v>
+        <v>41244</v>
       </c>
       <c r="B49">
-        <v>31.68</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>42339</v>
+        <v>41275</v>
       </c>
       <c r="B50">
-        <v>37.19</v>
+        <v>94.76</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>42309</v>
+        <v>41306</v>
       </c>
       <c r="B51">
-        <v>42.44</v>
+        <v>95.31</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>42278</v>
+        <v>41334</v>
       </c>
       <c r="B52">
-        <v>46.22</v>
+        <v>92.94</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>42248</v>
+        <v>41365</v>
       </c>
       <c r="B53">
-        <v>45.48</v>
+        <v>92.02</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>42217</v>
+        <v>41395</v>
       </c>
       <c r="B54">
-        <v>42.87</v>
+        <v>94.51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>42186</v>
+        <v>41426</v>
       </c>
       <c r="B55">
-        <v>50.9</v>
+        <v>95.77</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>42156</v>
+        <v>41456</v>
       </c>
       <c r="B56">
-        <v>59.82</v>
+        <v>104.67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>42125</v>
+        <v>41487</v>
       </c>
       <c r="B57">
-        <v>59.27</v>
+        <v>106.57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>42095</v>
+        <v>41518</v>
       </c>
       <c r="B58">
-        <v>54.45</v>
+        <v>106.29</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>42064</v>
+        <v>41548</v>
       </c>
       <c r="B59">
-        <v>47.82</v>
+        <v>100.54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>42036</v>
+        <v>41579</v>
       </c>
       <c r="B60">
-        <v>50.58</v>
+        <v>93.86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>42005</v>
+        <v>41609</v>
       </c>
       <c r="B61">
-        <v>47.22</v>
+        <v>97.63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>41974</v>
+        <v>41640</v>
       </c>
       <c r="B62">
-        <v>59.29</v>
+        <v>94.62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>41944</v>
+        <v>41671</v>
       </c>
       <c r="B63">
-        <v>75.790000000000006</v>
+        <v>100.82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>41913</v>
+        <v>41699</v>
       </c>
       <c r="B64">
-        <v>84.4</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>41883</v>
+        <v>41730</v>
       </c>
       <c r="B65">
-        <v>93.21</v>
+        <v>102.07</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>41852</v>
+        <v>41760</v>
       </c>
       <c r="B66">
-        <v>96.54</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B67">
-        <v>103.59</v>
+        <v>105.79</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B68">
-        <v>105.79</v>
+        <v>103.59</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B69">
-        <v>102.18</v>
+        <v>96.54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>41730</v>
+        <v>41883</v>
       </c>
       <c r="B70">
-        <v>102.07</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>41699</v>
+        <v>41913</v>
       </c>
       <c r="B71">
-        <v>100.8</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>41671</v>
+        <v>41944</v>
       </c>
       <c r="B72">
-        <v>100.82</v>
+        <v>75.790000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>41640</v>
+        <v>41974</v>
       </c>
       <c r="B73">
-        <v>94.62</v>
+        <v>59.29</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>41609</v>
+        <v>42005</v>
       </c>
       <c r="B74">
-        <v>97.63</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>41579</v>
+        <v>42036</v>
       </c>
       <c r="B75">
-        <v>93.86</v>
+        <v>50.58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>41548</v>
+        <v>42064</v>
       </c>
       <c r="B76">
-        <v>100.54</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>41518</v>
+        <v>42095</v>
       </c>
       <c r="B77">
-        <v>106.29</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>41487</v>
+        <v>42125</v>
       </c>
       <c r="B78">
-        <v>106.57</v>
+        <v>59.27</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>41456</v>
+        <v>42156</v>
       </c>
       <c r="B79">
-        <v>104.67</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>41426</v>
+        <v>42186</v>
       </c>
       <c r="B80">
-        <v>95.77</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>41395</v>
+        <v>42217</v>
       </c>
       <c r="B81">
-        <v>94.51</v>
+        <v>42.87</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>41365</v>
+        <v>42248</v>
       </c>
       <c r="B82">
-        <v>92.02</v>
+        <v>45.48</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>41334</v>
+        <v>42278</v>
       </c>
       <c r="B83">
-        <v>92.94</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>41306</v>
+        <v>42309</v>
       </c>
       <c r="B84">
-        <v>95.31</v>
+        <v>42.44</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>41275</v>
+        <v>42339</v>
       </c>
       <c r="B85">
-        <v>94.76</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>41244</v>
+        <v>42370</v>
       </c>
       <c r="B86">
-        <v>87.86</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>41214</v>
+        <v>42401</v>
       </c>
       <c r="B87">
-        <v>86.53</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>41183</v>
+        <v>42430</v>
       </c>
       <c r="B88">
-        <v>89.49</v>
+        <v>37.549999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>41153</v>
+        <v>42461</v>
       </c>
       <c r="B89">
-        <v>94.51</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>41122</v>
+        <v>42491</v>
       </c>
       <c r="B90">
-        <v>94.13</v>
+        <v>46.71</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>41091</v>
+        <v>42522</v>
       </c>
       <c r="B91">
-        <v>87.9</v>
+        <v>48.76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>41061</v>
+        <v>42552</v>
       </c>
       <c r="B92">
-        <v>82.3</v>
+        <v>44.65</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>41030</v>
+        <v>42583</v>
       </c>
       <c r="B93">
-        <v>94.66</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>41000</v>
+        <v>42614</v>
       </c>
       <c r="B94">
-        <v>103.32</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>40969</v>
+        <v>42644</v>
       </c>
       <c r="B95">
-        <v>106.16</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>40940</v>
+        <v>42675</v>
       </c>
       <c r="B96">
-        <v>102.2</v>
+        <v>45.66</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>40909</v>
+        <v>42705</v>
       </c>
       <c r="B97">
-        <v>100.27</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>40878</v>
+        <v>42736</v>
       </c>
       <c r="B98">
-        <v>98.56</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>40848</v>
+        <v>42767</v>
       </c>
       <c r="B99">
-        <v>97.16</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>40817</v>
+        <v>42795</v>
       </c>
       <c r="B100">
-        <v>86.32</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>40787</v>
+        <v>42826</v>
       </c>
       <c r="B101">
-        <v>85.52</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>40756</v>
+        <v>42856</v>
       </c>
       <c r="B102">
-        <v>86.33</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>40725</v>
+        <v>42887</v>
       </c>
       <c r="B103">
-        <v>97.3</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>40695</v>
+        <v>42917</v>
       </c>
       <c r="B104">
-        <v>96.26</v>
+        <v>46.63</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>40664</v>
+        <v>42948</v>
       </c>
       <c r="B105">
-        <v>100.9</v>
+        <v>48.04</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>40634</v>
+        <v>42979</v>
       </c>
       <c r="B106">
-        <v>109.53</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>40603</v>
+        <v>43009</v>
       </c>
       <c r="B107">
-        <v>102.86</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>40575</v>
+        <v>43040</v>
       </c>
       <c r="B108">
-        <v>88.58</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>40544</v>
+        <v>43070</v>
       </c>
       <c r="B109">
-        <v>89.17</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>40513</v>
+        <v>43101</v>
       </c>
       <c r="B110">
-        <v>89.15</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>40483</v>
+        <v>43132</v>
       </c>
       <c r="B111">
-        <v>84.25</v>
+        <v>62.23</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>40452</v>
+        <v>43160</v>
       </c>
       <c r="B112">
-        <v>81.89</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>40422</v>
+        <v>43191</v>
       </c>
       <c r="B113">
-        <v>75.239999999999995</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>40391</v>
+        <v>43221</v>
       </c>
       <c r="B114">
-        <v>76.599999999999994</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>40360</v>
+        <v>43252</v>
       </c>
       <c r="B115">
-        <v>76.319999999999993</v>
+        <v>67.87</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>40330</v>
+        <v>43282</v>
       </c>
       <c r="B116">
-        <v>75.34</v>
+        <v>70.98</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>40299</v>
+        <v>43313</v>
       </c>
       <c r="B117">
-        <v>73.739999999999995</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>40269</v>
+        <v>43344</v>
       </c>
       <c r="B118">
-        <v>84.29</v>
+        <v>70.23</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>40238</v>
+        <v>43374</v>
       </c>
       <c r="B119">
-        <v>81.2</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>40210</v>
+        <v>43405</v>
       </c>
       <c r="B120">
-        <v>76.39</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>40179</v>
+        <v>43435</v>
       </c>
       <c r="B121">
-        <v>78.33</v>
+        <v>49.52</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>40148</v>
+        <v>43466</v>
       </c>
       <c r="B122">
-        <v>74.47</v>
+        <v>51.38</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>40118</v>
+        <v>43497</v>
       </c>
       <c r="B123">
-        <v>77.989999999999995</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>40087</v>
+        <v>43525</v>
       </c>
       <c r="B124">
-        <v>75.72</v>
+        <v>58.15</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>40057</v>
+        <v>43556</v>
       </c>
       <c r="B125">
-        <v>69.41</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>40026</v>
+        <v>43586</v>
       </c>
       <c r="B126">
-        <v>71.05</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>39995</v>
+        <v>43617</v>
       </c>
       <c r="B127">
-        <v>64.150000000000006</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>39965</v>
+        <v>43647</v>
       </c>
       <c r="B128">
-        <v>69.64</v>
+        <v>57.35</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>39934</v>
+        <v>43678</v>
       </c>
       <c r="B129">
-        <v>59.03</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>39904</v>
+        <v>43709</v>
       </c>
       <c r="B130">
-        <v>49.65</v>
+        <v>56.95</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>39873</v>
+        <v>43739</v>
       </c>
       <c r="B131">
-        <v>47.94</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>39845</v>
+        <v>43770</v>
       </c>
       <c r="B132">
-        <v>39.090000000000003</v>
+        <v>57.03</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>39814</v>
+        <v>43800</v>
       </c>
       <c r="B133">
-        <v>41.71</v>
+        <v>59.88</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B133">
+    <sortCondition ref="A1:A133"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Oil prices per barrel.xlsx
+++ b/Oil prices per barrel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/GitHub/final-project-tomh237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C878AF-EF15-48D3-B3D9-F7734FF2F90A}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{F19039A4-4694-4D52-83E8-354EF619DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F25F1F8-7015-47A8-8B15-5FDA0999D05B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
